--- a/medicine/Mort/Diyu/Diyu.xlsx
+++ b/medicine/Mort/Diyu/Diyu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Diyu ou Di Yu (chinois traditionnel : 地獄 ; chinois simplifié : 地狱 ; hanyu pinyin : Dìyù ; Wade-Giles : Ti-yü ; japonais : 地獄 ; Jigoku, littéralement « Prison sous terre ») est le royaume des morts ou l'enfer dans la mythologie chinoise. Basé sur le concept bouddhiste de Naraka combiné aux croyances traditionnelles chinoises concernant l'au-delà, le concept de Di Yu incorpore des idées taoïstes, bouddhistes et issues de la religion populaire. C'est un lieu de purgatoire où les âmes sont purifiées en vue de leur réincarnation. Beaucoup de déités, dont les noms et les fonctions varient selon les traditions, y sont liées.
 Di Yu est dirigé par Yanluowang, le roi de l'Enfer. Il s'agit d'un gigantesque labyrinthe composé de nombreux niveaux souterrains et de chambres où les âmes sont emmenées pour se faire pardonner leurs péchés sur Terre. Le nombre exact de niveaux, et donc le nombre de déités qui y sont associées, diffère selon la perception bouddhiste ou taoïste. Selon quelques légendes chinoises, il y aurait dix-huit niveaux. Certains parlent de trois à quatre « cours », d'autres d'une dizaine, présidées par dix juges connus comme « rois Yanluo » (qui correspondent au dieu de la Mort hindou, appelé Yama). Chacun traite dans sa cour d'un aspect différent d'expiation. Ainsi, une cour traite seulement du meurtre, une autre uniquement de l'adultère. Les punitions varient selon les traditions : les âmes (ou « fantômes ») fautives sont sciées en deux, décapitées, jetées dans des puits à ordures ou forcées de grimper à des arbres hérissés d'épines, par exemple.
@@ -513,7 +525,9 @@
           <t>Les dix-huit niveaux de Di Yu</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Dans les mythologies bouddhiste et taoïste, Di Yu se compose de dix cours, chacune dirigée par un des dix juges de Yama et de dix-huit niveaux où les malfaiteurs sont punis.
 Quelques légendes font même état de dix-huit sous-enfers, voire de dix-huit enfers différents, chacun pour un type de punition. Selon certaines légendes, il y aurait plusieurs types de punition par niveau.
@@ -564,7 +578,9 @@
           <t>Noms alternatifs en chinois</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Voici plusieurs noms alternatifs de l'Enfer chinois. Les plus communs sont situés au-dessus :
 地獄, dìyù : la prison infernale
@@ -586,7 +602,7 @@
 冥府, míngfŭ : le manoir obscur
 阿鼻, ābí (hanyu pinyin) : terme bouddhiste tiré du sanskrit Avīci, l'enfer de la torture, de la profondeur de huit enfers chauds
 足跟, zúgēn le talon du pied, signifie également l'Enfer
-丰都城 / 酆都城, Fēngdū chéng, « cité de Fengdu » ou « capitale de l'abondance », à l'origine lieu souterrain habité par des dieux selon le taoïsme shangqing, et non lieu de torture. On la situe depuis les Song sous le mont Mingshan (冥山), « mont des Enfers », au nord-est du comté de Fengdu (丰都县 / 酆都縣), près des Trois Gorges, à l'est du Sichuan[1]. On y trouve au XXIe siècle un village-fantôme touristique sur la route des croisières sur le Chang Jiang[2].
+丰都城 / 酆都城, Fēngdū chéng, « cité de Fengdu » ou « capitale de l'abondance », à l'origine lieu souterrain habité par des dieux selon le taoïsme shangqing, et non lieu de torture. On la situe depuis les Song sous le mont Mingshan (冥山), « mont des Enfers », au nord-est du comté de Fengdu (丰都县 / 酆都縣), près des Trois Gorges, à l'est du Sichuan. On y trouve au XXIe siècle un village-fantôme touristique sur la route des croisières sur le Chang Jiang.
 Et quelques terminologies liées à l'enfer :
 奈何橋 : le pont de l'abandon
 望鄉臺 : le pavillon à la maison de vue
